--- a/pred_ohlcv/54_21/2020-01-16 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 STRAT ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>-23960.21699999999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-18820.21699999999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-23995.41829999999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-23995.41829999999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-21011.36683807</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-19581.67806952</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-18188.67806952</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>23.61923048000608</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>26.61923048000608</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4302.278669519994</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-7208.306869519995</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1429.042169519995</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3101.033809630006</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>11845.34103449</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>11722.97373449</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>9707.237634490004</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>21779.79563449</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>22431.28793449001</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>22369.29793449001</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>7719.370134490005</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>8346.301544950005</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-16216.18825504999</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-15589.25685504999</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-11750.65385504999</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-11750.65385504999</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-7841.378755049992</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4405.378755049992</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-10438.72195504999</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-11073.72195504999</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-11073.72195504999</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-11073.72195504999</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-10954.68625504999</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-10954.68625504999</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-19123.98015504999</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-19123.98015504999</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-19153.98015504999</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-19153.98015504999</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 STRAT ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>-23960.21699999999</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-18820.21699999999</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-23995.41829999999</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-23995.41829999999</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-24389.46629999999</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-21011.36683807</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-19372.90723807</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-19372.90723807</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-18727.47463807</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-22819.26373807</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-25334.32893807</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-27384.32893807</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-27380.82893807</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-17648.40421321</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-19581.67806952</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-18188.67806952</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>23.61923048000608</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>26.61923048000608</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4302.278669519994</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-7208.306869519995</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1429.042169519995</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3101.033809630006</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>6152.291134490005</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>6065.706934490005</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>5837.497834490005</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>11293.26233449001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>12930.32313449001</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>12732.25023449001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>8334.111134490005</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>8520.599934490005</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>8520.599934490005</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1877.051634490004</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2460.695734490004</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2179.705734490004</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2129.705734490004</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>3934.152334490004</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>7034.125434490004</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>5397.064634490004</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>13030.34103449</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>13269.34103449</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>11458.34103449</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>11845.34103449</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>11722.97373449</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>9707.237634490004</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>21779.79563449</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>22431.28793449001</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>22431.28793449001</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>22369.29793449001</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-13381.50775504999</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-13107.24925504999</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-11378.05395504999</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-11378.05395504999</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-11750.65385504999</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-11750.65385504999</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-7841.378755049992</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4405.378755049992</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-10438.72195504999</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-11073.72195504999</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-11073.72195504999</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-11073.72195504999</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-10954.68625504999</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-10954.68625504999</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-19123.98015504999</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
